--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>52.65956366666666</v>
+        <v>81.32496133333333</v>
       </c>
       <c r="H2">
-        <v>157.978691</v>
+        <v>243.974884</v>
       </c>
       <c r="I2">
-        <v>0.5629521204363476</v>
+        <v>0.6750769978981389</v>
       </c>
       <c r="J2">
-        <v>0.5629521204363476</v>
+        <v>0.6750769978981389</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.181818333333333</v>
+        <v>8.848335333333333</v>
       </c>
       <c r="N2">
-        <v>3.545455</v>
+        <v>26.545006</v>
       </c>
       <c r="O2">
-        <v>0.1102276208274679</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1102276208274679</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>62.23403776660056</v>
+        <v>719.5905288477004</v>
       </c>
       <c r="R2">
-        <v>560.106339899405</v>
+        <v>6476.314759629305</v>
       </c>
       <c r="S2">
-        <v>0.06205287287547674</v>
+        <v>0.6750769978981389</v>
       </c>
       <c r="T2">
-        <v>0.06205287287547675</v>
+        <v>0.6750769978981389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>52.65956366666666</v>
+        <v>6.328723</v>
       </c>
       <c r="H3">
-        <v>157.978691</v>
+        <v>18.986169</v>
       </c>
       <c r="I3">
-        <v>0.5629521204363476</v>
+        <v>0.05253461241570551</v>
       </c>
       <c r="J3">
-        <v>0.5629521204363476</v>
+        <v>0.05253461241570551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.539798666666666</v>
+        <v>8.848335333333333</v>
       </c>
       <c r="N3">
-        <v>28.619396</v>
+        <v>26.545006</v>
       </c>
       <c r="O3">
-        <v>0.889772379172532</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8897723791725322</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>502.3616352545151</v>
+        <v>55.99866333577933</v>
       </c>
       <c r="R3">
-        <v>4521.254717290636</v>
+        <v>503.987970022014</v>
       </c>
       <c r="S3">
-        <v>0.5008992475608708</v>
+        <v>0.05253461241570551</v>
       </c>
       <c r="T3">
-        <v>0.5008992475608708</v>
+        <v>0.05253461241570551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.328723</v>
+        <v>32.165674</v>
       </c>
       <c r="H4">
-        <v>18.986169</v>
+        <v>96.497022</v>
       </c>
       <c r="I4">
-        <v>0.06765661893927738</v>
+        <v>0.2670066641690489</v>
       </c>
       <c r="J4">
-        <v>0.06765661893927738</v>
+        <v>0.2670066641690489</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.181818333333333</v>
+        <v>8.848335333333333</v>
       </c>
       <c r="N4">
-        <v>3.545455</v>
+        <v>26.545006</v>
       </c>
       <c r="O4">
-        <v>0.1102276208274679</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1102276208274679</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>7.479400867988334</v>
+        <v>284.6126697746814</v>
       </c>
       <c r="R4">
-        <v>67.31460781189502</v>
+        <v>2561.514027972132</v>
       </c>
       <c r="S4">
-        <v>0.007457628138907148</v>
+        <v>0.2670066641690489</v>
       </c>
       <c r="T4">
-        <v>0.007457628138907149</v>
+        <v>0.2670066641690489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>6.328723</v>
+        <v>0.648324</v>
       </c>
       <c r="H5">
-        <v>18.986169</v>
+        <v>1.944972</v>
       </c>
       <c r="I5">
-        <v>0.06765661893927738</v>
+        <v>0.005381725517106667</v>
       </c>
       <c r="J5">
-        <v>0.06765661893927738</v>
+        <v>0.005381725517106666</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.539798666666666</v>
+        <v>8.848335333333333</v>
       </c>
       <c r="N5">
-        <v>28.619396</v>
+        <v>26.545006</v>
       </c>
       <c r="O5">
-        <v>0.889772379172532</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8897723791725322</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>60.37474323710266</v>
+        <v>5.736588156648</v>
       </c>
       <c r="R5">
-        <v>543.3726891339239</v>
+        <v>51.629293409832</v>
       </c>
       <c r="S5">
-        <v>0.06019899080037022</v>
+        <v>0.005381725517106667</v>
       </c>
       <c r="T5">
-        <v>0.06019899080037024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>33.96434433333334</v>
-      </c>
-      <c r="H6">
-        <v>101.893033</v>
-      </c>
-      <c r="I6">
-        <v>0.3630926337086864</v>
-      </c>
-      <c r="J6">
-        <v>0.3630926337086863</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>1.181818333333333</v>
-      </c>
-      <c r="N6">
-        <v>3.545455</v>
-      </c>
-      <c r="O6">
-        <v>0.1102276208274679</v>
-      </c>
-      <c r="P6">
-        <v>0.1102276208274679</v>
-      </c>
-      <c r="Q6">
-        <v>40.13968481277945</v>
-      </c>
-      <c r="R6">
-        <v>361.2571633150151</v>
-      </c>
-      <c r="S6">
-        <v>0.04002283715368776</v>
-      </c>
-      <c r="T6">
-        <v>0.04002283715368776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>33.96434433333334</v>
-      </c>
-      <c r="H7">
-        <v>101.893033</v>
-      </c>
-      <c r="I7">
-        <v>0.3630926337086864</v>
-      </c>
-      <c r="J7">
-        <v>0.3630926337086863</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.539798666666666</v>
-      </c>
-      <c r="N7">
-        <v>28.619396</v>
-      </c>
-      <c r="O7">
-        <v>0.889772379172532</v>
-      </c>
-      <c r="P7">
-        <v>0.8897723791725322</v>
-      </c>
-      <c r="Q7">
-        <v>324.0130067853409</v>
-      </c>
-      <c r="R7">
-        <v>2916.117061068068</v>
-      </c>
-      <c r="S7">
-        <v>0.3230697965549986</v>
-      </c>
-      <c r="T7">
-        <v>0.3230697965549986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.589185</v>
-      </c>
-      <c r="H8">
-        <v>1.767555</v>
-      </c>
-      <c r="I8">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="J8">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>1.181818333333333</v>
-      </c>
-      <c r="N8">
-        <v>3.545455</v>
-      </c>
-      <c r="O8">
-        <v>0.1102276208274679</v>
-      </c>
-      <c r="P8">
-        <v>0.1102276208274679</v>
-      </c>
-      <c r="Q8">
-        <v>0.696309634725</v>
-      </c>
-      <c r="R8">
-        <v>6.266786712525001</v>
-      </c>
-      <c r="S8">
-        <v>0.0006942826593962175</v>
-      </c>
-      <c r="T8">
-        <v>0.0006942826593962176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.589185</v>
-      </c>
-      <c r="H9">
-        <v>1.767555</v>
-      </c>
-      <c r="I9">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="J9">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.539798666666666</v>
-      </c>
-      <c r="N9">
-        <v>28.619396</v>
-      </c>
-      <c r="O9">
-        <v>0.889772379172532</v>
-      </c>
-      <c r="P9">
-        <v>0.8897723791725322</v>
-      </c>
-      <c r="Q9">
-        <v>5.620706277419999</v>
-      </c>
-      <c r="R9">
-        <v>50.58635649678</v>
-      </c>
-      <c r="S9">
-        <v>0.005604344256292483</v>
-      </c>
-      <c r="T9">
-        <v>0.005604344256292484</v>
+        <v>0.005381725517106666</v>
       </c>
     </row>
   </sheetData>
